--- a/Resources/Акции_buffer.xlsx
+++ b/Resources/Акции_buffer.xlsx
@@ -448,10 +448,10 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F50"/>
+  <dimension ref="A1:F48"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="B3" sqref="B3:B48"/>
+      <selection activeCell="A3" sqref="A3:A48"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultColWidth="8.6328125" defaultRowHeight="14.5"/>
@@ -500,7 +500,7 @@
         </is>
       </c>
       <c r="D3" s="4" t="n">
-        <v>266.85</v>
+        <v>263.86</v>
       </c>
       <c r="E3" s="3" t="n"/>
       <c r="F3" s="3">
@@ -525,7 +525,7 @@
         </is>
       </c>
       <c r="D4" s="4" t="n">
-        <v>146250</v>
+        <v>146750</v>
       </c>
       <c r="E4" s="3" t="n"/>
       <c r="F4" s="3" t="n"/>
@@ -547,7 +547,7 @@
         </is>
       </c>
       <c r="D5" s="4" t="n">
-        <v>25432</v>
+        <v>22766</v>
       </c>
       <c r="E5" s="3" t="n"/>
       <c r="F5" s="3" t="n"/>
@@ -569,7 +569,7 @@
         </is>
       </c>
       <c r="D6" s="4" t="n">
-        <v>948.3</v>
+        <v>778.1</v>
       </c>
       <c r="E6" s="3" t="n"/>
       <c r="F6" s="3" t="n"/>
@@ -591,7 +591,7 @@
         </is>
       </c>
       <c r="D7" s="4" t="n">
-        <v>222.87</v>
+        <v>221.88</v>
       </c>
       <c r="E7" s="3" t="n"/>
       <c r="F7" s="3" t="n"/>
@@ -613,7 +613,7 @@
         </is>
       </c>
       <c r="D8" s="4" t="n">
-        <v>848.8</v>
+        <v>843.4</v>
       </c>
       <c r="E8" s="3" t="n"/>
       <c r="F8" s="3" t="n"/>
@@ -635,7 +635,7 @@
         </is>
       </c>
       <c r="D9" s="4" t="n">
-        <v>42.54</v>
+        <v>40.15</v>
       </c>
       <c r="E9" s="3" t="n"/>
       <c r="F9" s="3" t="n"/>
@@ -1480,8 +1480,6 @@
       <c r="E48" s="3" t="n"/>
       <c r="F48" s="3" t="n"/>
     </row>
-    <row r="49"/>
-    <row r="50"/>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511805555555555" footer="0.511805555555555"/>
   <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300"/>

--- a/Resources/Акции_buffer.xlsx
+++ b/Resources/Акции_buffer.xlsx
@@ -451,7 +451,7 @@
   <dimension ref="A1:F48"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="A3" sqref="A3:A48"/>
+      <selection activeCell="B3" sqref="B3:B26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultColWidth="8.6328125" defaultRowHeight="14.5"/>
@@ -657,7 +657,7 @@
         </is>
       </c>
       <c r="D10" s="4" t="n">
-        <v>0.212</v>
+        <v>0.2144</v>
       </c>
       <c r="E10" s="3" t="n"/>
       <c r="F10" s="3" t="n"/>
@@ -679,7 +679,7 @@
         </is>
       </c>
       <c r="D11" s="4" t="n">
-        <v>317.3</v>
+        <v>319.35</v>
       </c>
       <c r="E11" s="3" t="n"/>
       <c r="F11" s="3" t="n"/>
@@ -701,7 +701,7 @@
         </is>
       </c>
       <c r="D12" s="4" t="n">
-        <v>107.61</v>
+        <v>107.55</v>
       </c>
       <c r="E12" s="3" t="n"/>
       <c r="F12" s="3" t="n"/>
@@ -723,7 +723,7 @@
         </is>
       </c>
       <c r="D13" s="4" t="n">
-        <v>1607.8</v>
+        <v>1411.8</v>
       </c>
       <c r="E13" s="3" t="n"/>
       <c r="F13" s="3" t="n"/>
@@ -745,7 +745,7 @@
         </is>
       </c>
       <c r="D14" s="4" t="n">
-        <v>357</v>
+        <v>372.25</v>
       </c>
       <c r="E14" s="3" t="n"/>
       <c r="F14" s="3" t="n"/>
@@ -767,7 +767,7 @@
         </is>
       </c>
       <c r="D15" s="4" t="n">
-        <v>8.25</v>
+        <v>8.58</v>
       </c>
       <c r="E15" s="3" t="n"/>
       <c r="F15" s="3" t="n"/>
@@ -789,7 +789,7 @@
         </is>
       </c>
       <c r="D16" s="4" t="n">
-        <v>8.25</v>
+        <v>8.58</v>
       </c>
       <c r="E16" s="3" t="n"/>
       <c r="F16" s="3" t="n"/>
@@ -811,7 +811,7 @@
         </is>
       </c>
       <c r="D17" s="4" t="n">
-        <v>2320.5</v>
+        <v>2480</v>
       </c>
       <c r="E17" s="3" t="n"/>
       <c r="F17" s="3" t="n"/>
@@ -833,7 +833,7 @@
         </is>
       </c>
       <c r="D18" s="4" t="n">
-        <v>171.68</v>
+        <v>168.53</v>
       </c>
       <c r="E18" s="3" t="n"/>
       <c r="F18" s="3" t="n"/>
@@ -855,7 +855,7 @@
         </is>
       </c>
       <c r="D19" s="4" t="n">
-        <v>540.15</v>
+        <v>562.65</v>
       </c>
       <c r="E19" s="3" t="n"/>
       <c r="F19" s="3" t="n"/>
@@ -877,7 +877,7 @@
         </is>
       </c>
       <c r="D20" s="4" t="n">
-        <v>6020</v>
+        <v>6118</v>
       </c>
       <c r="E20" s="3" t="n"/>
       <c r="F20" s="3" t="n"/>
@@ -899,7 +899,7 @@
         </is>
       </c>
       <c r="D21" s="4" t="n">
-        <v>196.09</v>
+        <v>197.38</v>
       </c>
       <c r="E21" s="3" t="n"/>
       <c r="F21" s="3" t="n"/>
@@ -921,7 +921,7 @@
         </is>
       </c>
       <c r="D22" s="4" t="n">
-        <v>5180</v>
+        <v>5409</v>
       </c>
       <c r="E22" s="3" t="n"/>
       <c r="F22" s="3" t="n"/>
@@ -943,7 +943,7 @@
         </is>
       </c>
       <c r="D23" s="4" t="n">
-        <v>4369</v>
+        <v>3945</v>
       </c>
       <c r="E23" s="3" t="n"/>
       <c r="F23" s="3" t="n"/>
@@ -965,7 +965,7 @@
         </is>
       </c>
       <c r="D24" s="4" t="n">
-        <v>1548.1</v>
+        <v>1537.4</v>
       </c>
       <c r="E24" s="3" t="n"/>
       <c r="F24" s="3" t="n"/>
@@ -987,7 +987,7 @@
         </is>
       </c>
       <c r="D25" s="4" t="n">
-        <v>14488</v>
+        <v>14120</v>
       </c>
       <c r="E25" s="3" t="n"/>
       <c r="F25" s="3" t="n"/>
@@ -1009,7 +1009,7 @@
         </is>
       </c>
       <c r="D26" s="4" t="n">
-        <v>255.06</v>
+        <v>218.08</v>
       </c>
       <c r="E26" s="3" t="n"/>
       <c r="F26" s="3" t="n"/>
@@ -1030,9 +1030,7 @@
           <t>russia</t>
         </is>
       </c>
-      <c r="D27" s="4" t="n">
-        <v>2.899</v>
-      </c>
+      <c r="D27" s="4" t="n"/>
       <c r="E27" s="3" t="n"/>
       <c r="F27" s="3" t="n"/>
     </row>
@@ -1048,9 +1046,7 @@
         </is>
       </c>
       <c r="C28" s="3" t="n"/>
-      <c r="D28" s="3" t="n">
-        <v>3379.39</v>
-      </c>
+      <c r="D28" s="3" t="n"/>
       <c r="E28" s="3" t="n"/>
       <c r="F28" s="3" t="n"/>
     </row>
@@ -1070,9 +1066,7 @@
           <t>russia</t>
         </is>
       </c>
-      <c r="D29" s="4" t="n">
-        <v>5862</v>
-      </c>
+      <c r="D29" s="4" t="n"/>
       <c r="E29" s="3" t="n"/>
       <c r="F29" s="3" t="n"/>
     </row>
@@ -1092,9 +1086,7 @@
           <t>russia</t>
         </is>
       </c>
-      <c r="D30" s="4" t="n">
-        <v>4175</v>
-      </c>
+      <c r="D30" s="4" t="n"/>
       <c r="E30" s="3" t="n"/>
       <c r="F30" s="3" t="n"/>
     </row>
@@ -1114,9 +1106,7 @@
           <t>russia</t>
         </is>
       </c>
-      <c r="D31" s="4" t="n">
-        <v>3177.5</v>
-      </c>
+      <c r="D31" s="4" t="n"/>
       <c r="E31" s="3" t="n"/>
       <c r="F31" s="3" t="n"/>
     </row>
@@ -1136,9 +1126,7 @@
           <t>russia</t>
         </is>
       </c>
-      <c r="D32" s="4" t="n">
-        <v>10929</v>
-      </c>
+      <c r="D32" s="4" t="n"/>
       <c r="E32" s="3" t="n"/>
       <c r="F32" s="3" t="n"/>
     </row>
@@ -1166,9 +1154,7 @@
           <t>russia</t>
         </is>
       </c>
-      <c r="D34" s="3" t="n">
-        <v>109.42</v>
-      </c>
+      <c r="D34" s="3" t="n"/>
       <c r="E34" s="3" t="n"/>
       <c r="F34" s="3" t="n"/>
     </row>
@@ -1188,9 +1174,7 @@
           <t>russia</t>
         </is>
       </c>
-      <c r="D35" s="3" t="n">
-        <v>-1</v>
-      </c>
+      <c r="D35" s="3" t="n"/>
       <c r="E35" s="3" t="n"/>
       <c r="F35" s="3" t="n"/>
     </row>
@@ -1210,9 +1194,7 @@
           <t>russia</t>
         </is>
       </c>
-      <c r="D36" s="3" t="n">
-        <v>102.44</v>
-      </c>
+      <c r="D36" s="3" t="n"/>
       <c r="E36" s="3" t="n"/>
       <c r="F36" s="3" t="n"/>
     </row>
@@ -1232,9 +1214,7 @@
           <t>russia</t>
         </is>
       </c>
-      <c r="D37" s="3" t="n">
-        <v>102.18</v>
-      </c>
+      <c r="D37" s="3" t="n"/>
       <c r="E37" s="3" t="n"/>
       <c r="F37" s="3" t="n"/>
     </row>
@@ -1254,9 +1234,7 @@
           <t>russia</t>
         </is>
       </c>
-      <c r="D38" s="3" t="n">
-        <v>106.42</v>
-      </c>
+      <c r="D38" s="3" t="n"/>
       <c r="E38" s="3" t="n"/>
       <c r="F38" s="3" t="n"/>
     </row>
@@ -1276,9 +1254,7 @@
           <t>russia</t>
         </is>
       </c>
-      <c r="D39" s="3" t="n">
-        <v>100.1</v>
-      </c>
+      <c r="D39" s="3" t="n"/>
       <c r="E39" s="3" t="n"/>
       <c r="F39" s="3" t="n"/>
     </row>
@@ -1298,9 +1274,7 @@
           <t>russia</t>
         </is>
       </c>
-      <c r="D40" s="3" t="n">
-        <v>102.65</v>
-      </c>
+      <c r="D40" s="3" t="n"/>
       <c r="E40" s="3" t="n"/>
       <c r="F40" s="3" t="n"/>
     </row>
@@ -1320,9 +1294,7 @@
           <t>russia</t>
         </is>
       </c>
-      <c r="D41" s="3" t="n">
-        <v>101.38</v>
-      </c>
+      <c r="D41" s="3" t="n"/>
       <c r="E41" s="3" t="n"/>
       <c r="F41" s="3" t="n"/>
     </row>
@@ -1342,9 +1314,7 @@
           <t>russia</t>
         </is>
       </c>
-      <c r="D42" s="3" t="n">
-        <v>100.51</v>
-      </c>
+      <c r="D42" s="3" t="n"/>
       <c r="E42" s="3" t="n"/>
       <c r="F42" s="3" t="n"/>
     </row>
@@ -1364,9 +1334,7 @@
           <t>russia</t>
         </is>
       </c>
-      <c r="D43" s="3" t="n">
-        <v>101.01</v>
-      </c>
+      <c r="D43" s="3" t="n"/>
       <c r="E43" s="3" t="n"/>
       <c r="F43" s="3" t="n"/>
     </row>
@@ -1386,9 +1354,7 @@
           <t>russia</t>
         </is>
       </c>
-      <c r="D44" s="3" t="n">
-        <v>104.79</v>
-      </c>
+      <c r="D44" s="3" t="n"/>
       <c r="E44" s="3" t="n"/>
       <c r="F44" s="3" t="n"/>
     </row>
@@ -1408,9 +1374,7 @@
           <t>russia</t>
         </is>
       </c>
-      <c r="D45" s="3" t="n">
-        <v>102.98</v>
-      </c>
+      <c r="D45" s="3" t="n"/>
       <c r="E45" s="3" t="n"/>
       <c r="F45" s="3" t="n"/>
     </row>
@@ -1430,9 +1394,7 @@
           <t>russia</t>
         </is>
       </c>
-      <c r="D46" s="3" t="n">
-        <v>139.66</v>
-      </c>
+      <c r="D46" s="3" t="n"/>
       <c r="E46" s="3" t="n"/>
       <c r="F46" s="3" t="n"/>
     </row>
@@ -1452,9 +1414,7 @@
           <t>russia</t>
         </is>
       </c>
-      <c r="D47" s="3" t="n">
-        <v>165</v>
-      </c>
+      <c r="D47" s="3" t="n"/>
       <c r="E47" s="3" t="n"/>
       <c r="F47" s="3" t="n"/>
     </row>
@@ -1474,9 +1434,7 @@
           <t>russia</t>
         </is>
       </c>
-      <c r="D48" s="3" t="n">
-        <v>165</v>
-      </c>
+      <c r="D48" s="3" t="n"/>
       <c r="E48" s="3" t="n"/>
       <c r="F48" s="3" t="n"/>
     </row>
